--- a/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/1U3U3I3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/TestDataFiles/CablingDataSet/1U3U3I3I3I3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37EAFDB-700F-41A8-B2EF-3FB6D43C2893}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B16E8-3E9F-44F0-9D21-278079C6D8A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1481,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1495,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1509,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1523,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +1551,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +1565,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,13 +1579,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,13 +1593,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,13 +1607,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
